--- a/Stocks/LT.xlsx
+++ b/Stocks/LT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1743.3333333333333</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1182.203369869484</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1182.4926122701108</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>33.841861651993725</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>2.5499999999999545</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>19.349999999999909</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.13178294573643237</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>DOWN</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1350.8591746594486</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-127.73764808144233</v>
       </c>
       <c r="Y67">
         <v>-133.1922260166784</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1134.7</v>
+      </c>
+      <c r="D83">
+        <v>1155</v>
+      </c>
+      <c r="E83">
+        <v>1128.8</v>
+      </c>
+      <c r="F83">
+        <v>1138</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1140.6000000000001</v>
+      </c>
+      <c r="H83">
+        <v>1134.6853221135948</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>1145.7111890994163</v>
+      </c>
+      <c r="K83">
+        <v>1126.1996486027231</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>52.207693689988922</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>9.2000000000000455</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>26.200000000000045</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.35114503816794007</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>1142.7268408382924</v>
+      </c>
+      <c r="W83">
+        <v>1202.4962265798843</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-59.769385741591805</v>
+      </c>
+      <c r="Y83">
+        <v>-74.804308733542328</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1135.6500000000001</v>
+      </c>
+      <c r="D84">
+        <v>1138.75</v>
+      </c>
+      <c r="E84">
+        <v>1123.3499999999999</v>
+      </c>
+      <c r="F84">
+        <v>1129</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1130.3666666666666</v>
+      </c>
+      <c r="H84">
+        <v>1132.5259943901306</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>1144.1642581884348</v>
+      </c>
+      <c r="K84">
+        <v>1125.5663933576734</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>39.495256329009607</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>5.6500000000000909</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>15.400000000000091</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.36688311688312064</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>1140.6150191708628</v>
+      </c>
+      <c r="W84">
+        <v>1197.052061648041</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-56.437042477178238</v>
+      </c>
+      <c r="Y84">
+        <v>-71.13085548226951</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1140</v>
+      </c>
+      <c r="D85">
+        <v>1145.9000000000001</v>
+      </c>
+      <c r="E85">
+        <v>1133</v>
+      </c>
+      <c r="F85">
+        <v>1139.3499999999999</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1139.4166666666667</v>
+      </c>
+      <c r="H85">
+        <v>1135.9713305283985</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>1144.5499785910049</v>
+      </c>
+      <c r="K85">
+        <v>1127.2183059448571</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>55.182584431473771</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>6.3499999999999091</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>12.900000000000091</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.49224806201549337</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>1140.4204008368838</v>
+      </c>
+      <c r="W85">
+        <v>1192.7778348592972</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-52.357434022413372</v>
+      </c>
+      <c r="Y85">
+        <v>-67.37617119029828</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1144</v>
+      </c>
+      <c r="D86">
+        <v>1145</v>
+      </c>
+      <c r="E86">
+        <v>1130.5</v>
+      </c>
+      <c r="F86">
+        <v>1134.95</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1136.8166666666666</v>
+      </c>
+      <c r="H86">
+        <v>1136.3939985975326</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>1144.6499833485593</v>
+      </c>
+      <c r="K86">
+        <v>1127.9475712904443</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>48.500281584026958</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>4.4500000000000455</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>14.5</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.30689655172414104</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>1139.5788007081323</v>
+      </c>
+      <c r="W86">
+        <v>1188.4942915363863</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-48.915490828253951</v>
+      </c>
+      <c r="Y86">
+        <v>-63.684035117889415</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1134.95</v>
+      </c>
+      <c r="D87">
+        <v>1144.4000000000001</v>
+      </c>
+      <c r="E87">
+        <v>1131.55</v>
+      </c>
+      <c r="F87">
+        <v>1140</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1138.6499999999999</v>
+      </c>
+      <c r="H87">
+        <v>1137.5219992987663</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>1144.594431493324</v>
+      </c>
+      <c r="K87">
+        <v>1128.748111003679</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>56.122998224398337</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>8.4500000000000455</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>12.850000000000136</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.65758754863812885</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>1139.6436005991889</v>
+      </c>
+      <c r="W87">
+        <v>1184.9021217929503</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-45.258521193761453</v>
+      </c>
+      <c r="Y87">
+        <v>-59.99893233306382</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1127.95</v>
+      </c>
+      <c r="D88">
+        <v>1138.95</v>
+      </c>
+      <c r="E88">
+        <v>1122</v>
+      </c>
+      <c r="F88">
+        <v>1128</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1129.6499999999999</v>
+      </c>
+      <c r="H88">
+        <v>1133.5859996493832</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>1143.3401133836965</v>
+      </c>
+      <c r="K88">
+        <v>1127.2485307806392</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>38.983841910277086</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>16.950000000000045</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.3539823008849548</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>1137.8522774300829</v>
+      </c>
+      <c r="W88">
+        <v>1180.6871498082874</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-42.834872378204409</v>
+      </c>
+      <c r="Y88">
+        <v>-56.566120342091935</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1131.1500000000001</v>
+      </c>
+      <c r="D89">
+        <v>1139</v>
+      </c>
+      <c r="E89">
+        <v>1122.3</v>
+      </c>
+      <c r="F89">
+        <v>1126.45</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1129.25</v>
+      </c>
+      <c r="H89">
+        <v>1131.4179998246916</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>1142.3756437428751</v>
+      </c>
+      <c r="K89">
+        <v>1126.1488572738303</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>37.151986943979828</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>4.1500000000000909</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>16.700000000000045</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.24850299401198081</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>1136.0980809023779</v>
+      </c>
+      <c r="W89">
+        <v>1176.6695831558216</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-40.571502253443668</v>
+      </c>
+      <c r="Y89">
+        <v>-53.36719672436228</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1122</v>
+      </c>
+      <c r="D90">
+        <v>1126.0999999999999</v>
+      </c>
+      <c r="E90">
+        <v>1115.9000000000001</v>
+      </c>
+      <c r="F90">
+        <v>1118.5</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1120.1666666666667</v>
+      </c>
+      <c r="H90">
+        <v>1125.7923332456792</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>1138.7588340222362</v>
+      </c>
+      <c r="K90">
+        <v>1123.8713334352014</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N90">
+        <v>28.550620597789521</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>2.5999999999999091</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>10.199999999999818</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.25490196078430938</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1133.3906838404737</v>
+      </c>
+      <c r="W90">
+        <v>1172.3607251442793</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-38.970041303805601</v>
+      </c>
+      <c r="Y90">
+        <v>-50.487765640250942</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1121.0999999999999</v>
+      </c>
+      <c r="D91">
+        <v>1130.95</v>
+      </c>
+      <c r="E91">
+        <v>1118.25</v>
+      </c>
+      <c r="F91">
+        <v>1129.7</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1126.3</v>
+      </c>
+      <c r="H91">
+        <v>1126.0461666228396</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>1137.0235375728505</v>
+      </c>
+      <c r="K91">
+        <v>1122.6221482273788</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>49.244077014253982</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>11.450000000000045</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>12.700000000000045</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.9015748031496067</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>1132.8228863265547</v>
+      </c>
+      <c r="W91">
+        <v>1169.2006714298882</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-36.377785103333508</v>
+      </c>
+      <c r="Y91">
+        <v>-47.665769532867458</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1137.5</v>
+      </c>
+      <c r="D92">
+        <v>1182</v>
+      </c>
+      <c r="E92">
+        <v>1134.05</v>
+      </c>
+      <c r="F92">
+        <v>1171.7</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1162.5833333333333</v>
+      </c>
+      <c r="H92">
+        <v>1144.3147499780864</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>1147.018307001106</v>
+      </c>
+      <c r="K92">
+        <v>1125.161670843517</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>78.471474396297808</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>37.650000000000091</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>47.950000000000045</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.78519290928050167</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>1138.8039807378539</v>
+      </c>
+      <c r="W92">
+        <v>1169.3858068795262</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-30.581826141672309</v>
+      </c>
+      <c r="Y92">
+        <v>-44.248980854628428</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1180</v>
+      </c>
+      <c r="D93">
+        <v>1225</v>
+      </c>
+      <c r="E93">
+        <v>1152.55</v>
+      </c>
+      <c r="F93">
+        <v>1216</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1197.8500000000001</v>
+      </c>
+      <c r="H93">
+        <v>1171.0823749890433</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>1164.3475721119714</v>
+      </c>
+      <c r="K93">
+        <v>1131.2479662116243</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>87.762462440494659</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>63.450000000000045</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>72.450000000000045</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.87577639751552805</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V93">
+        <v>1150.6802913935687</v>
+      </c>
+      <c r="W93">
+        <v>1172.8387100736354</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-22.158418680066688</v>
+      </c>
+      <c r="Y93">
+        <v>-39.830868419716083</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD93">
+        <f t="shared" si="35"/>
+        <v>1160.8</v>
+      </c>
+      <c r="AE93">
+        <f t="shared" si="36"/>
+        <v>1180.25</v>
+      </c>
+      <c r="AF93">
+        <f t="shared" si="37"/>
+        <v>1188.8</v>
+      </c>
+      <c r="AG93">
+        <f t="shared" si="38"/>
+        <v>1197.3</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1219.5</v>
+      </c>
+      <c r="D94">
+        <v>1234</v>
+      </c>
+      <c r="E94">
+        <v>1219.5</v>
+      </c>
+      <c r="F94">
+        <v>1227.2</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1226.8999999999999</v>
+      </c>
+      <c r="H94">
+        <v>1198.9911874945215</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>1179.8258894204223</v>
+      </c>
+      <c r="K94">
+        <v>1150.8595292757077</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>89.231185218173977</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>7.7000000000000455</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>14.5</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.53103448275862386</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>1162.4525542560966</v>
+      </c>
+      <c r="W94">
+        <v>1176.8654722904032</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-14.412918034306585</v>
+      </c>
+      <c r="Y94">
+        <v>-34.747278342634182</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1222</v>
+      </c>
+      <c r="D95">
+        <v>1229</v>
+      </c>
+      <c r="E95">
+        <v>1207.5</v>
+      </c>
+      <c r="F95">
+        <v>1223.55</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1220.0166666666667</v>
+      </c>
+      <c r="H95">
+        <v>1209.5039270805942</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>1190.7534695492172</v>
+      </c>
+      <c r="K95">
+        <v>1163.4463005477726</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>85.071917557752244</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>16.049999999999955</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>21.5</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.74651162790697467</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1171.8521612936202</v>
+      </c>
+      <c r="W95">
+        <v>1180.3235854540771</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-8.4714241604569906</v>
+      </c>
+      <c r="Y95">
+        <v>-29.492107506198742</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1223.55</v>
+      </c>
+      <c r="D96">
+        <v>1234</v>
+      </c>
+      <c r="E96">
+        <v>1211.5</v>
+      </c>
+      <c r="F96">
+        <v>1214.0999999999999</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1219.8666666666666</v>
+      </c>
+      <c r="H96">
+        <v>1214.6852968736303</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>1200.3638096493912</v>
+      </c>
+      <c r="K96">
+        <v>1174.1249004260453</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>73.920857363463895</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>2.5999999999999091</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>22.5</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.11555555555555151</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>1178.3518287869094</v>
+      </c>
+      <c r="W96">
+        <v>1182.8255420871085</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-4.4737133001990514</v>
+      </c>
+      <c r="Y96">
+        <v>-24.488428664998803</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1214</v>
+      </c>
+      <c r="D97">
+        <v>1221.6500000000001</v>
+      </c>
+      <c r="E97">
+        <v>1202.05</v>
+      </c>
+      <c r="F97">
+        <v>1208.3499999999999</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1210.6833333333332</v>
+      </c>
+      <c r="H97">
+        <v>1212.6843151034818</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>1205.0940741717488</v>
+      </c>
+      <c r="K97">
+        <v>1180.3304781091463</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>67.21938091574107</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>6.2999999999999545</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>19.600000000000136</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.32142857142856684</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1182.9669320504618</v>
+      </c>
+      <c r="W97">
+        <v>1184.7162426732486</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-1.7493106227868793</v>
+      </c>
+      <c r="Y97">
+        <v>-19.940605056556418</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1218.55</v>
+      </c>
+      <c r="D98">
+        <v>1246</v>
+      </c>
+      <c r="E98">
+        <v>1218.55</v>
+      </c>
+      <c r="F98">
+        <v>1237.5</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1234.0166666666667</v>
+      </c>
+      <c r="H98">
+        <v>1223.3504908850741</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>1214.1842799113601</v>
+      </c>
+      <c r="K98">
+        <v>1188.8237051960027</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>79.180197542226111</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>18.950000000000045</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>27.450000000000045</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.69034608378870721</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>1191.3566348119291</v>
+      </c>
+      <c r="W98">
+        <v>1188.6261506233784</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>2.7304841885506903</v>
+      </c>
+      <c r="Y98">
+        <v>-15.406387207534996</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1235</v>
+      </c>
+      <c r="D99">
+        <v>1237.8</v>
+      </c>
+      <c r="E99">
+        <v>1220.5</v>
+      </c>
+      <c r="F99">
+        <v>1227.3</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1228.5333333333335</v>
+      </c>
+      <c r="H99">
+        <v>1225.9419121092037</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>1219.4322177088357</v>
+      </c>
+      <c r="K99">
+        <v>1195.8628818191132</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>68.282717045131989</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>6.7999999999999545</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>17.299999999999955</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.39306358381502732</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>1196.8863833024016</v>
+      </c>
+      <c r="W99">
+        <v>1191.4908802068319</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>5.3955030955696657</v>
+      </c>
+      <c r="Y99">
+        <v>-11.246009146914062</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1228.1500000000001</v>
+      </c>
+      <c r="D100">
+        <v>1250.5</v>
+      </c>
+      <c r="E100">
+        <v>1228.1500000000001</v>
+      </c>
+      <c r="F100">
+        <v>1236</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1238.2166666666667</v>
+      </c>
+      <c r="H100">
+        <v>1232.0792893879352</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>1226.3361693290944</v>
+      </c>
+      <c r="K100">
+        <v>1203.0377969704214</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>72.34126699555496</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>7.8499999999999091</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>22.349999999999909</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.35123042505592578</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>1202.9038627943398</v>
+      </c>
+      <c r="W100">
+        <v>1194.7878520433628</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>8.1160107509770114</v>
+      </c>
+      <c r="Y100">
+        <v>-7.3736051673358478</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1236.9000000000001</v>
+      </c>
+      <c r="D101">
+        <v>1240</v>
+      </c>
+      <c r="E101">
+        <v>1208.75</v>
+      </c>
+      <c r="F101">
+        <v>1228.4000000000001</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1225.7166666666667</v>
+      </c>
+      <c r="H101">
+        <v>1228.897978027301</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>1229.3725761448513</v>
+      </c>
+      <c r="K101">
+        <v>1204.3071754214388</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>63.47247078261956</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>19.650000000000091</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>31.25</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.62880000000000291</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>1206.8263454413645</v>
+      </c>
+      <c r="W101">
+        <v>1197.2776407808915</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>9.5487046604730494</v>
+      </c>
+      <c r="Y101">
+        <v>-3.9891432017740684</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1228.05</v>
+      </c>
+      <c r="D102">
+        <v>1229.1500000000001</v>
+      </c>
+      <c r="E102">
+        <v>1176.05</v>
+      </c>
+      <c r="F102">
+        <v>1187</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1197.3999999999999</v>
+      </c>
+      <c r="H102">
+        <v>1213.1489890136504</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1229.3231147793288</v>
+      </c>
+      <c r="K102">
+        <v>1198.0278031055636</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>34.593930566310327</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>10.950000000000045</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>53.100000000000136</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.20621468926553704</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>1203.7761384503854</v>
+      </c>
+      <c r="W102">
+        <v>1196.5163340563811</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>7.2598043940042771</v>
+      </c>
+      <c r="Y102">
+        <v>-1.7393536826183995</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1187</v>
+      </c>
+      <c r="D103">
+        <v>1187</v>
+      </c>
+      <c r="E103">
+        <v>1145</v>
+      </c>
+      <c r="F103">
+        <v>1163.25</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>1165.0833333333333</v>
+      </c>
+      <c r="H103">
+        <v>1189.1161611734919</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1219.9179781617001</v>
+      </c>
+      <c r="K103">
+        <v>1186.2438468598828</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>26.083833154212112</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>18.25</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>42</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.43452380952380953</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1197.5413479195568</v>
+      </c>
+      <c r="W103">
+        <v>1194.0521611633158</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>3.4891867562409971</v>
+      </c>
+      <c r="Y103">
+        <v>-0.69364559484652011</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>1151</v>
+      </c>
+      <c r="D104">
+        <v>1170</v>
+      </c>
+      <c r="E104">
+        <v>1151</v>
+      </c>
+      <c r="F104">
+        <v>1157</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1159.3333333333333</v>
+      </c>
+      <c r="H104">
+        <v>1174.2247472534127</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>1208.8250941257668</v>
+      </c>
+      <c r="K104">
+        <v>1178.41188089102</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>24.131119726292134</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1191.3042174703942</v>
+      </c>
+      <c r="W104">
+        <v>1191.3075566326997</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-3.3391623055649688E-3</v>
+      </c>
+      <c r="Y104">
+        <v>-0.55558430833832906</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>1172.9000000000001</v>
+      </c>
+      <c r="D105">
+        <v>1172.9000000000001</v>
+      </c>
+      <c r="E105">
+        <v>1131.5</v>
+      </c>
+      <c r="F105">
+        <v>1137.05</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>1147.1499999999999</v>
+      </c>
+      <c r="H105">
+        <v>1160.6873736267062</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>1200.8417398755964</v>
+      </c>
+      <c r="K105">
+        <v>1167.9870184707934</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>18.58093380966481</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>5.5499999999999545</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>41.400000000000091</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.13405797101449135</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>1182.9574147826413</v>
+      </c>
+      <c r="W105">
+        <v>1187.2884783636109</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-4.3310635809696123</v>
+      </c>
+      <c r="Y105">
+        <v>-1.3106801628645859</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>1168.2</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>1157.1000000000001</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>1152.2</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>1147.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>1140.3499999999999</v>
+      </c>
+      <c r="D106">
+        <v>1143.7</v>
+      </c>
+      <c r="E106">
+        <v>1128</v>
+      </c>
+      <c r="F106">
+        <v>1133</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>1134.8999999999999</v>
+      </c>
+      <c r="H106">
+        <v>1147.7936868133529</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>1188.1435754587972</v>
+      </c>
+      <c r="K106">
+        <v>1159.1010143661726</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>17.556263208193716</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>15.700000000000045</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.31847133757961693</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>1175.271658662235</v>
+      </c>
+      <c r="W106">
+        <v>1183.2671095959361</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-7.9954509337010222</v>
+      </c>
+      <c r="Y106">
+        <v>-2.6476343170318732</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>1139.95</v>
+      </c>
+      <c r="D107">
+        <v>1154.05</v>
+      </c>
+      <c r="E107">
+        <v>1131.05</v>
+      </c>
+      <c r="F107">
+        <v>1145</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>1143.3666666666666</v>
+      </c>
+      <c r="H107">
+        <v>1145.5801767400098</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>1180.5672253568423</v>
+      </c>
+      <c r="K107">
+        <v>1152.8674556181343</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>31.539107788976846</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>13.950000000000045</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.60652173913043672</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>1170.6144804065066</v>
+      </c>
+      <c r="W107">
+        <v>1180.432508885126</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-9.8180284786194534</v>
+      </c>
+      <c r="Y107">
+        <v>-4.0817131493493894</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
